--- a/analysis/post_gemini_data/participant210/task_hard.xlsx
+++ b/analysis/post_gemini_data/participant210/task_hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,312 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>arg</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>arg10</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>arg2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>arg3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>arg4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>arg5</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>arg6</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>arg7</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>arg8</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>assign1</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>assign2</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>assign3</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>assign4</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>assign5</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>assign6</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>assign7</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>assign8</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>condbody</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>condstat</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>condstat2</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>condstat3</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>condstat4</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>condstat5</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>loopbody</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>loopstat</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>methdocall10</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>methdocall11</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>methodcall1</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>methodcall2</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>methodcall3</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>methodcall4</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>methodcall5</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>methodcall6</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>methodcall7</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>methodec</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>var1</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>var10</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>var11</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>var12</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>var13</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>var15</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>var16</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>var17</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>var18</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>var19</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>var2</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>var20</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>var21</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>var22</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>var3</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>var5</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>var6</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>var7</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>var8</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>